--- a/medicine/Sexualité et sexologie/Sex-symbol/Sex-symbol.xlsx
+++ b/medicine/Sexualité et sexologie/Sex-symbol/Sex-symbol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sex-symbol est une vedette symbolisant un certain idéal sexuel qu'il soit féminin ou masculin. Les sex-symbols sont perçus comme possédant des qualités qui les rendent sexuellement attirants bien que celles-ci soient subjectives.
 </t>
@@ -511,7 +523,9 @@
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'industrie du cinéma a joué un important rôle dans la venue des sex-symbols. Elle a répandu dans le monde les images de belles personnes, surtout pendant l'époque du cinéma muet, se libérant ainsi de la barrière du langage. Il semble que la première sex-symbol soit l'actrice danoise Asta Nielsen pendant les années 1910 et les années 1920. Également, Theda Bara, Thora Hird et Pola Negri, fameuses pour leurs rôles de vamps, ont également joué ce rôle. Rudolph Valentino est le premier sex-symbol masculin connu.
 Toujours créés par l'industrie du cinéma, suivront bien d'autres après la guerre.
@@ -543,7 +557,9 @@
           <t>Musique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaucoup de chanteurs et chanteuses, tels que Jim Morrison, Iggy Pop, Madonna deviennent des sex-symbols de par leur voix, leur attitude scénique.
 </t>
@@ -574,7 +590,9 @@
           <t>Célébrités mondiales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs célébrités de sommité mondiale sont aussi des sex-symbols. On peut citer, par exemple, les chanteuses pop Britney Spears et Kylie Minogue, parmi les sex-symbols les plus marquantes des années 2000. Les groupes de musique composés uniquement de garçons (« boys band ») sont également perçus comme tels par leurs admiratrices et admirateurs.
 </t>
@@ -605,7 +623,9 @@
           <t>Autre signification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce terme peut aussi renvoyer aux glyphes qui représentent le sexe biologique d'un être vivant : ♀ (pour les femelles) et ♂ (pour les mâles).
 </t>
